--- a/人脸任务.xlsx
+++ b/人脸任务.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/code/PhotoCheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95CBE41-2D7E-EE44-80D8-0CDC91DDA9B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4299A228-C7FB-3145-A651-611B1CA22191}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{378A0E90-EBDE-484F-B1C6-1A56CE4CF8CF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{378A0E90-EBDE-484F-B1C6-1A56CE4CF8CF}"/>
   </bookViews>
   <sheets>
     <sheet name="照片检测" sheetId="1" r:id="rId1"/>
-    <sheet name="广州像素" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="广州像素" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc270665575" localSheetId="1">广州像素!$A$27</definedName>
-    <definedName name="_Toc336595416" localSheetId="1">广州像素!$A$20</definedName>
+    <definedName name="_Toc270665575" localSheetId="2">广州像素!$A$27</definedName>
+    <definedName name="_Toc336595416" localSheetId="2">广州像素!$A$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="185">
   <si>
     <t>照片质量检测</t>
     <rPh sb="0" eb="2">
@@ -954,6 +955,187 @@
     <t>几何模型</t>
     <rPh sb="0" eb="2">
       <t>ji'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源方案</t>
+    <rPh sb="0" eb="2">
+      <t>kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方</t>
+    <rPh sb="0" eb="2">
+      <t>di'san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密狗</t>
+    <rPh sb="0" eb="2">
+      <t>jia'mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前项目人脸识别需求及解决方案统计</t>
+    <rPh sb="0" eb="2">
+      <t>mu'qia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案来源</t>
+    <rPh sb="0" eb="2">
+      <t>jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权方式</t>
+    <rPh sb="0" eb="2">
+      <t>shou'qua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商</t>
+    <rPh sb="0" eb="2">
+      <t>chang'shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <rPh sb="0" eb="2">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳地铁闸机</t>
+    <rPh sb="0" eb="2">
+      <t>shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云天励飞</t>
+    <rPh sb="0" eb="2">
+      <t>yun'tia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <rPh sb="0" eb="2">
+      <t>xu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.身份证照片(4Kb)现场照片比对 2.Real-Time1:N比对</t>
+    <rPh sb="975" eb="977">
+      <t>shen'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉车证</t>
+    <rPh sb="0" eb="2">
+      <t>wu'ha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市民之家</t>
+    <rPh sb="0" eb="2">
+      <t>wu'han'shi'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰州市公安局项目</t>
+    <rPh sb="0" eb="2">
+      <t>tai'zhou'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绍兴社保自助照相设备</t>
+    <rPh sb="0" eb="2">
+      <t>shao'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绍兴社保自助制卡社保</t>
+    <rPh sb="0" eb="2">
+      <t>shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照相机</t>
+    <rPh sb="0" eb="2">
+      <t>zhao'xiang'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片自动检测裁剪</t>
+    <rPh sb="0" eb="2">
+      <t>zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PXL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳润达</t>
+    <rPh sb="0" eb="2">
+      <t>shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片处理，照片背景替换</t>
+    <rPh sb="0" eb="2">
+      <t>zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一所质检</t>
+    <rPh sb="0" eb="2">
+      <t>su</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.双目摄像头人脸比对 2.活体检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脸检测</t>
+    <rPh sb="0" eb="2">
+      <t>r</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1040,12 +1222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,11 +1240,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1121,16 +1303,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1176,106 +1348,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1599,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65197DF5-A581-7E43-B86C-6F518A988DA3}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1613,13 +1685,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1645,10 +1717,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1662,8 +1734,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1675,8 +1747,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1688,8 +1760,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1701,8 +1773,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1716,8 +1788,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1726,22 +1798,22 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1752,36 +1824,36 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1792,8 +1864,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1802,8 +1874,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1812,8 +1884,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1822,8 +1894,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1831,8 +1903,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1841,8 +1913,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1923,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1861,8 +1933,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1873,15 +1945,15 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1890,15 +1962,15 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1909,8 +1981,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1919,15 +1991,15 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1936,15 +2008,15 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1953,8 +2025,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1965,8 +2037,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1975,8 +2047,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1985,36 +2057,36 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2044,6 +2116,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD753A9-602C-9B49-BDF2-0158C4B6875A}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C759B0C-4390-1D4F-973C-BA3E6FFFBA87}">
   <dimension ref="A1:J43"/>
   <sheetViews>
@@ -2056,34 +2295,34 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="7" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2091,10 +2330,10 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">
@@ -2103,7 +2342,7 @@
       <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2111,15 +2350,15 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2127,15 +2366,15 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2143,8 +2382,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C7" t="s">
@@ -2153,7 +2392,7 @@
       <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2164,15 +2403,15 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2180,8 +2419,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
@@ -2190,7 +2429,7 @@
       <c r="D9" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2198,15 +2437,15 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2214,15 +2453,15 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2233,15 +2472,15 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2249,15 +2488,15 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>81</v>
       </c>
       <c r="D13" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2265,8 +2504,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C14" t="s">
@@ -2275,7 +2514,7 @@
       <c r="D14" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2283,15 +2522,15 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2299,8 +2538,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C16" t="s">
@@ -2309,7 +2548,7 @@
       <c r="D16" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2317,15 +2556,15 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2333,15 +2572,15 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2349,15 +2588,15 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2365,7 +2604,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B20" t="s">
@@ -2374,7 +2613,7 @@
       <c r="D20" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2382,14 +2621,14 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
+      <c r="A21" s="8"/>
       <c r="B21" t="s">
         <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2397,14 +2636,14 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
         <v>92</v>
       </c>
       <c r="D22" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2412,14 +2651,14 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
+      <c r="A23" s="8"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2427,7 +2666,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B24" t="s">
@@ -2436,7 +2675,7 @@
       <c r="D24" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2444,14 +2683,14 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>96</v>
       </c>
       <c r="D25" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2459,14 +2698,14 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
+      <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2477,13 +2716,13 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2494,11 +2733,11 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
+      <c r="A28" s="8"/>
       <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2509,11 +2748,11 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
+      <c r="A29" s="8"/>
       <c r="B29" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2524,11 +2763,11 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
+      <c r="A30" s="8"/>
       <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2539,7 +2778,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2"/>
+      <c r="A31" s="8"/>
       <c r="B31" t="s">
         <v>104</v>
       </c>
@@ -2554,7 +2793,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2"/>
+      <c r="A32" s="8"/>
       <c r="B32" t="s">
         <v>105</v>
       </c>
@@ -2566,14 +2805,14 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
+      <c r="A33" s="8"/>
       <c r="B33" t="s">
         <v>106</v>
       </c>
       <c r="D33" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -2581,14 +2820,14 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
+      <c r="A34" s="8"/>
       <c r="B34" t="s">
         <v>107</v>
       </c>
       <c r="D34" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -2596,14 +2835,14 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
+      <c r="A35" s="8"/>
       <c r="B35" t="s">
         <v>108</v>
       </c>
       <c r="D35" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2611,14 +2850,14 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
+      <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>109</v>
       </c>
       <c r="D36" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2626,7 +2865,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B37" t="s">
@@ -2637,7 +2876,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2"/>
+      <c r="A38" s="8"/>
       <c r="B38" t="s">
         <v>149</v>
       </c>
@@ -2646,7 +2885,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2"/>
+      <c r="A39" s="8"/>
       <c r="B39" t="s">
         <v>150</v>
       </c>
@@ -2655,7 +2894,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2"/>
+      <c r="A40" s="8"/>
       <c r="B40" t="s">
         <v>151</v>
       </c>
@@ -2664,7 +2903,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2"/>
+      <c r="A41" s="8"/>
       <c r="B41" t="s">
         <v>152</v>
       </c>
@@ -2673,7 +2912,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2"/>
+      <c r="A42" s="8"/>
       <c r="B42" t="s">
         <v>154</v>
       </c>
@@ -2685,7 +2924,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2"/>
+      <c r="A43" s="8"/>
       <c r="B43" t="s">
         <v>153</v>
       </c>
@@ -2709,19 +2948,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"EX"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="13">

--- a/人脸任务.xlsx
+++ b/人脸任务.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/code/PhotoCheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4299A228-C7FB-3145-A651-611B1CA22191}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4886A3-D28E-6B47-8543-ECCEA59F6157}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{378A0E90-EBDE-484F-B1C6-1A56CE4CF8CF}"/>
   </bookViews>
   <sheets>
     <sheet name="照片检测" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="目前解决方案" sheetId="3" r:id="rId2"/>
     <sheet name="广州像素" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>

--- a/人脸任务.xlsx
+++ b/人脸任务.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/code/PhotoCheck/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PhotoCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4886A3-D28E-6B47-8543-ECCEA59F6157}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{378A0E90-EBDE-484F-B1C6-1A56CE4CF8CF}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="照片检测" sheetId="1" r:id="rId1"/>
@@ -22,6 +21,7 @@
     <definedName name="_Toc336595416" localSheetId="2">广州像素!$A$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="187">
   <si>
     <t>照片质量检测</t>
     <rPh sb="0" eb="2">
@@ -1037,7 +1037,7 @@
   </si>
   <si>
     <t>1.身份证照片(4Kb)现场照片比对 2.Real-Time1:N比对</t>
-    <rPh sb="975" eb="977">
+    <rPh sb="0" eb="35">
       <t>shen'fen</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,14 +1137,22 @@
     <rPh sb="0" eb="2">
       <t>r</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标点+LAB模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-(B+G)&gt;a 高斯二元分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1168,8 +1176,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1200,6 +1222,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1215,7 +1243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,7 +1272,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,10 +1407,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC7EECF"/>
+      <color rgb="FFFEEAA0"/>
       <color rgb="FFFEC7CE"/>
       <color rgb="FFFDBF2D"/>
-      <color rgb="FFFEEAA0"/>
-      <color rgb="FFC7EECF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1668,32 +1720,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65197DF5-A581-7E43-B86C-6F518A988DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1716,11 +1769,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1733,9 +1786,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1746,9 +1799,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1759,9 +1812,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1772,9 +1825,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1787,9 +1840,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1797,23 +1850,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
+      <c r="E9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1823,37 +1879,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1863,9 +1919,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1873,9 +1929,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1883,9 +1939,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1893,18 +1949,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1912,9 +1968,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1922,9 +1978,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1932,9 +1988,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1944,16 +2000,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1961,16 +2017,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1980,9 +2036,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1990,16 +2046,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2007,16 +2063,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2024,9 +2080,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2036,9 +2092,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="8"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
@@ -2046,9 +2102,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="8"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,42 +2112,48 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="8"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="8"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="8"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2116,160 +2178,163 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD753A9-602C-9B49-BDF2-0158C4B6875A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="3" width="23" customWidth="1"/>
-    <col min="5" max="5" width="65.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11" style="13"/>
+    <col min="5" max="5" width="61.875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="17" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="C11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="14" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2279,35 +2344,36 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C759B0C-4390-1D4F-973C-BA3E6FFFBA87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="7" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="3" t="s">
         <v>120</v>
       </c>
@@ -2321,7 +2387,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" s="7" t="s">
         <v>59</v>
       </c>
@@ -2329,11 +2395,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">
@@ -2349,9 +2415,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>64</v>
       </c>
@@ -2365,9 +2431,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>65</v>
       </c>
@@ -2381,9 +2447,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C7" t="s">
@@ -2402,9 +2468,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>72</v>
       </c>
@@ -2418,9 +2484,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
@@ -2436,9 +2502,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -2452,9 +2518,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>47</v>
       </c>
@@ -2471,9 +2537,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" t="s">
         <v>80</v>
       </c>
@@ -2487,9 +2553,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" t="s">
         <v>81</v>
       </c>
@@ -2503,9 +2569,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C14" t="s">
@@ -2521,9 +2587,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>79</v>
       </c>
@@ -2537,9 +2603,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C16" t="s">
@@ -2555,9 +2621,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" t="s">
         <v>83</v>
       </c>
@@ -2571,9 +2637,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -2587,9 +2653,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
@@ -2603,8 +2669,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B20" t="s">
@@ -2620,8 +2686,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>91</v>
       </c>
@@ -2635,8 +2701,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -2650,8 +2716,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -2665,8 +2731,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B24" t="s">
@@ -2682,8 +2748,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>96</v>
       </c>
@@ -2697,8 +2763,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
         <v>98</v>
       </c>
@@ -2715,8 +2781,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B27" t="s">
@@ -2732,8 +2798,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
       <c r="B28" t="s">
         <v>101</v>
       </c>
@@ -2747,8 +2813,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
       <c r="B29" t="s">
         <v>102</v>
       </c>
@@ -2762,8 +2828,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
       <c r="B30" t="s">
         <v>103</v>
       </c>
@@ -2777,8 +2843,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
       <c r="B31" t="s">
         <v>104</v>
       </c>
@@ -2792,8 +2858,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
       <c r="B32" t="s">
         <v>105</v>
       </c>
@@ -2804,8 +2870,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
       <c r="B33" t="s">
         <v>106</v>
       </c>
@@ -2819,8 +2885,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
         <v>107</v>
       </c>
@@ -2834,8 +2900,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
       <c r="B35" t="s">
         <v>108</v>
       </c>
@@ -2849,8 +2915,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
       <c r="B36" t="s">
         <v>109</v>
       </c>
@@ -2864,8 +2930,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B37" t="s">
@@ -2875,8 +2941,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
       <c r="B38" t="s">
         <v>149</v>
       </c>
@@ -2884,8 +2950,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="8"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
       <c r="B39" t="s">
         <v>150</v>
       </c>
@@ -2893,8 +2959,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="8"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
       <c r="B40" t="s">
         <v>151</v>
       </c>
@@ -2902,8 +2968,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
       <c r="B41" t="s">
         <v>152</v>
       </c>
@@ -2911,8 +2977,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="8"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
       <c r="B42" t="s">
         <v>154</v>
       </c>
@@ -2923,8 +2989,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="8"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
       <c r="B43" t="s">
         <v>153</v>
       </c>
